--- a/docs/mcode/oncocore-CancerDiseaseStatus.xlsx
+++ b/docs/mcode/oncocore-CancerDiseaseStatus.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="423">
   <si>
     <t>Path</t>
   </si>
@@ -204,19 +204,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
   </si>
   <si>
     <t>extensions
@@ -230,394 +309,236 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>relatedcancercondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-RelatedCancerCondition-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Cancer condition this information relates to.</t>
+  </si>
+  <si>
+    <t>evidencetype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-EvidenceType-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The type of evidence considered in making the determination.</t>
+  </si>
+  <si>
+    <t>Observation.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Observation.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-EvidenceType-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/oncocore/vs/CancerDiseaseStatusEvidenceTypeVS</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Unique Id for this particular observation</t>
+  </si>
+  <si>
+    <t>A unique identifier for the simple observation instance.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>OBX.21</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.  This is used  for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Observation.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Observation.meta.security</t>
+    <t>Observation.code.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding {[]} {[]}
 </t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>relatedcancercondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-RelatedCancerCondition-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Cancer condition this information relates to.</t>
-  </si>
-  <si>
-    <t>evidencetype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-EvidenceType-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The type of evidence considered in making the determination.</t>
-  </si>
-  <si>
-    <t>Observation.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Observation.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-EvidenceType-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.extension.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/projectURL/oncocore/vs/CancerDiseaseStatusEvidenceTypeVS</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Unique Id for this particular observation</t>
-  </si>
-  <si>
-    <t>A unique identifier for the simple observation instance.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>OBX.21</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.  This is used  for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -867,6 +788,10 @@
     <t>Observation.issued</t>
   </si>
   <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Date/Time this was made available</t>
   </si>
   <si>
@@ -919,7 +844,7 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/oncocore/vs/CancerDiseaseStatusVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/ConditionStatusTrendVS</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -1014,25 +939,13 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
   </si>
   <si>
     <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.text</t>
   </si>
   <si>
     <t>Observation.method</t>
@@ -1561,7 +1474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM87"/>
+  <dimension ref="A1:AM76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1593,8 +1506,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="76.86328125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.11328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.0625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -2055,21 +1968,23 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -2132,7 +2047,7 @@
         <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>42</v>
@@ -2140,18 +2055,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -2198,13 +2113,13 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -2236,7 +2151,7 @@
         <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>42</v>
@@ -2244,11 +2159,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2264,19 +2179,19 @@
         <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2331,7 +2246,7 @@
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2340,7 +2255,7 @@
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2348,18 +2263,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2368,19 +2283,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2444,7 +2359,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2452,11 +2367,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2472,19 +2387,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2522,16 +2437,14 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
@@ -2548,7 +2461,7 @@
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2556,9 +2469,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2567,7 +2482,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>42</v>
@@ -2576,20 +2491,16 @@
         <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2614,13 +2525,13 @@
         <v>42</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>42</v>
@@ -2637,11 +2548,15 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2660,9 +2575,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2680,20 +2597,16 @@
         <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2718,10 +2631,10 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>42</v>
@@ -2741,11 +2654,15 @@
       <c r="AD11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2764,7 +2681,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2781,23 +2698,21 @@
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -2845,11 +2760,15 @@
       <c r="AD12" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE12" s="2"/>
+      <c r="AE12" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG12" s="2"/>
+      <c r="AG12" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2860,7 +2779,7 @@
         <v>42</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>42</v>
@@ -2868,7 +2787,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2879,7 +2798,7 @@
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>42</v>
@@ -2891,17 +2810,15 @@
         <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>42</v>
@@ -2926,13 +2843,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2949,11 +2866,15 @@
       <c r="AD13" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG13" s="2"/>
+      <c r="AG13" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH13" t="s" s="2">
         <v>42</v>
       </c>
@@ -2972,15 +2893,15 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>51</v>
@@ -2995,24 +2916,22 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>116</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>42</v>
@@ -3053,13 +2972,17 @@
       <c r="AD14" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE14" s="2"/>
+      <c r="AE14" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="AF14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG14" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH14" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
@@ -3068,7 +2991,7 @@
         <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>42</v>
@@ -3076,18 +2999,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>42</v>
@@ -3099,17 +3022,15 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>42</v>
@@ -3134,13 +3055,11 @@
         <v>42</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>42</v>
@@ -3157,11 +3076,15 @@
       <c r="AD15" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE15" s="2"/>
+      <c r="AE15" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG15" s="2"/>
+      <c r="AG15" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH15" t="s" s="2">
         <v>42</v>
       </c>
@@ -3172,7 +3095,7 @@
         <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>42</v>
@@ -3180,11 +3103,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3197,22 +3120,22 @@
         <v>42</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3250,14 +3173,16 @@
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" t="s" s="2">
@@ -3274,7 +3199,7 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>42</v>
@@ -3284,9 +3209,7 @@
       <c r="A17" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>130</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3295,7 +3218,7 @@
         <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>42</v>
@@ -3307,14 +3230,18 @@
         <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3361,15 +3288,11 @@
       <c r="AD17" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE17" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG17" s="2"/>
       <c r="AH17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3377,50 +3300,52 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B18" t="s" s="2">
         <v>133</v>
       </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
         <v>135</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3444,13 +3369,13 @@
         <v>42</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>42</v>
@@ -3467,15 +3392,11 @@
       <c r="AD18" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE18" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="AE18" s="2"/>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG18" s="2"/>
       <c r="AH18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3483,18 +3404,18 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>42</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3517,15 +3438,17 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3550,13 +3473,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3573,15 +3496,11 @@
       <c r="AD19" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE19" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="AE19" s="2"/>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG19" s="2"/>
       <c r="AH19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3592,15 +3511,15 @@
         <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>42</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3608,31 +3527,33 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3656,13 +3577,13 @@
         <v>42</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
@@ -3679,15 +3600,11 @@
       <c r="AD20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE20" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3695,18 +3612,18 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3714,7 +3631,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>51</v>
@@ -3729,13 +3646,13 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3744,7 +3661,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>42</v>
@@ -3785,15 +3702,11 @@
       <c r="AD21" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE21" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG21" s="2"/>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3804,7 +3717,7 @@
         <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>42</v>
@@ -3812,18 +3725,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
@@ -3835,15 +3748,17 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3868,11 +3783,13 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3889,15 +3806,11 @@
       <c r="AD22" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE22" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3908,7 +3821,7 @@
         <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -3916,15 +3829,15 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>41</v>
@@ -3933,24 +3846,26 @@
         <v>42</v>
       </c>
       <c r="H23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I23" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3986,16 +3901,14 @@
         <v>42</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
@@ -4009,10 +3922,10 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -4020,18 +3933,20 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>42</v>
@@ -4040,21 +3955,19 @@
         <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
@@ -4113,18 +4026,18 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4132,7 +4045,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>51</v>
@@ -4141,24 +4054,22 @@
         <v>42</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4182,13 +4093,13 @@
         <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
@@ -4217,29 +4128,29 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
@@ -4251,16 +4162,16 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4286,13 +4197,13 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4324,15 +4235,15 @@
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4340,7 +4251,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>51</v>
@@ -4355,24 +4266,26 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>42</v>
@@ -4390,13 +4303,13 @@
         <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4425,18 +4338,18 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>190</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4456,18 +4369,20 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4527,10 +4442,10 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>42</v>
@@ -4538,18 +4453,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4558,27 +4473,27 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>67</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>42</v>
@@ -4631,10 +4546,10 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4642,7 +4557,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4650,10 +4565,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -4665,19 +4580,17 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4714,14 +4627,16 @@
         <v>42</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AB30" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE30" s="2"/>
       <c r="AF30" t="s" s="2">
@@ -4735,10 +4650,10 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -4746,17 +4661,15 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>51</v>
@@ -4771,16 +4684,20 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4839,10 +4756,10 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
@@ -4850,7 +4767,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4870,19 +4787,23 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>62</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4941,52 +4862,54 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>69</v>
+        <v>224</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5033,11 +4956,15 @@
       <c r="AD33" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE33" s="2"/>
+      <c r="AE33" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG33" s="2"/>
+      <c r="AG33" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5045,18 +4972,18 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>42</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5076,29 +5003,27 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>42</v>
@@ -5151,18 +5076,18 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>42</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5176,7 +5101,7 @@
         <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>42</v>
@@ -5185,18 +5110,20 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5255,18 +5182,18 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>42</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5289,24 +5216,24 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>42</v>
@@ -5359,18 +5286,18 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>42</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5381,7 +5308,7 @@
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
@@ -5393,17 +5320,17 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5463,18 +5390,18 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>42</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5488,7 +5415,7 @@
         <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>42</v>
@@ -5497,20 +5424,16 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>233</v>
+        <v>118</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5534,13 +5457,11 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5557,11 +5478,15 @@
       <c r="AD38" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE38" s="2"/>
+      <c r="AE38" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG38" s="2"/>
+      <c r="AG38" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5569,10 +5494,10 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5580,7 +5505,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5600,22 +5525,22 @@
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5640,13 +5565,11 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>42</v>
@@ -5669,16 +5592,16 @@
       </c>
       <c r="AG39" s="2"/>
       <c r="AH39" t="s" s="2">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>245</v>
+        <v>88</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5686,15 +5609,15 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>51</v>
@@ -5706,22 +5629,20 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>248</v>
+        <v>118</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5746,13 +5667,13 @@
         <v>42</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
@@ -5769,15 +5690,11 @@
       <c r="AD40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE40" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="AE40" s="2"/>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG40" s="2"/>
       <c r="AH40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5785,18 +5702,18 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5819,17 +5736,17 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>257</v>
+        <v>104</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5889,18 +5806,18 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>263</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5911,7 +5828,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -5920,22 +5837,22 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>265</v>
+        <v>118</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -5960,13 +5877,11 @@
         <v>42</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
@@ -5983,11 +5898,15 @@
       <c r="AD42" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE42" s="2"/>
+      <c r="AE42" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG42" s="2"/>
+      <c r="AG42" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5995,18 +5914,18 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>272</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6026,21 +5945,23 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6064,13 +5985,13 @@
         <v>42</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>42</v>
@@ -6099,18 +6020,18 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>279</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6121,7 +6042,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6130,21 +6051,21 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6191,11 +6112,15 @@
       <c r="AD44" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE44" s="2"/>
+      <c r="AE44" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG44" s="2"/>
+      <c r="AG44" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6203,18 +6128,18 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>287</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6225,7 +6150,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -6234,18 +6159,20 @@
         <v>42</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>150</v>
+        <v>317</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6270,11 +6197,13 @@
         <v>42</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>42</v>
@@ -6292,7 +6221,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6307,10 +6236,10 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6318,7 +6247,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6329,7 +6258,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6341,19 +6270,19 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6378,11 +6307,13 @@
         <v>42</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>298</v>
+        <v>42</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>42</v>
@@ -6399,22 +6330,26 @@
       <c r="AD46" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE46" s="2"/>
+      <c r="AE46" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG46" s="2"/>
+      <c r="AG46" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH46" t="s" s="2">
-        <v>299</v>
+        <v>42</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>42</v>
+        <v>329</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>125</v>
+        <v>330</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6422,11 +6357,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6445,18 +6380,16 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>303</v>
+        <v>105</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>304</v>
+        <v>162</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6480,13 +6413,13 @@
         <v>42</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>306</v>
+        <v>42</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6515,10 +6448,10 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>309</v>
+        <v>163</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6526,18 +6459,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>42</v>
@@ -6549,18 +6482,18 @@
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>311</v>
+        <v>92</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
@@ -6619,10 +6552,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>315</v>
+        <v>163</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6630,43 +6563,41 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>317</v>
+        <v>124</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6690,11 +6621,13 @@
         <v>42</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>42</v>
@@ -6711,15 +6644,11 @@
       <c r="AD49" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE49" t="s" s="2">
-        <v>316</v>
-      </c>
+      <c r="AE49" s="2"/>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG49" s="2"/>
       <c r="AH49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6727,10 +6656,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>324</v>
+        <v>88</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6738,7 +6667,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6761,13 +6690,13 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>53</v>
+        <v>338</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>62</v>
+        <v>339</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>63</v>
+        <v>340</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6823,16 +6752,16 @@
       </c>
       <c r="AG50" s="2"/>
       <c r="AH50" t="s" s="2">
-        <v>42</v>
+        <v>341</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6840,18 +6769,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
@@ -6863,17 +6792,15 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>67</v>
+        <v>338</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>68</v>
+        <v>345</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -6927,16 +6854,16 @@
       </c>
       <c r="AG51" s="2"/>
       <c r="AH51" t="s" s="2">
-        <v>42</v>
+        <v>341</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>64</v>
+        <v>347</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6944,7 +6871,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6955,7 +6882,7 @@
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -6964,22 +6891,22 @@
         <v>42</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>194</v>
+        <v>349</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>195</v>
+        <v>350</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>196</v>
+        <v>351</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>197</v>
+        <v>352</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7004,13 +6931,13 @@
         <v>42</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>42</v>
+        <v>353</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>42</v>
@@ -7039,10 +6966,10 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>199</v>
+        <v>355</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -7050,7 +6977,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7070,22 +6997,20 @@
         <v>42</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>137</v>
+        <v>357</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>241</v>
+        <v>358</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7145,10 +7070,10 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>246</v>
+        <v>361</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7156,7 +7081,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7179,20 +7104,16 @@
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7216,13 +7137,13 @@
         <v>42</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>334</v>
+        <v>42</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>335</v>
+        <v>42</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7251,10 +7172,10 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7262,7 +7183,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7282,21 +7203,23 @@
         <v>42</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7344,13 +7267,13 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>42</v>
@@ -7359,10 +7282,10 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7370,7 +7293,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7381,7 +7304,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7393,17 +7316,15 @@
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>346</v>
+        <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>347</v>
+        <v>105</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -7451,15 +7372,11 @@
       <c r="AD56" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE56" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="AE56" s="2"/>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG56" s="2"/>
       <c r="AH56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7467,10 +7384,10 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>350</v>
+        <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>351</v>
+        <v>163</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7478,18 +7395,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7501,20 +7418,18 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>353</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>354</v>
+        <v>92</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>355</v>
+        <v>165</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7561,26 +7476,22 @@
       <c r="AD57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE57" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="AE57" s="2"/>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG57" s="2"/>
       <c r="AH57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>358</v>
+        <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>359</v>
+        <v>42</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>360</v>
+        <v>163</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7588,38 +7499,40 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -7682,7 +7595,7 @@
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7690,18 +7603,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>42</v>
@@ -7716,21 +7629,23 @@
         <v>67</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>68</v>
+        <v>377</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>69</v>
+        <v>378</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>42</v>
@@ -7748,13 +7663,13 @@
         <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7783,10 +7698,10 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>64</v>
+        <v>384</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7794,40 +7709,38 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>364</v>
+        <v>42</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>67</v>
+        <v>386</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>156</v>
+        <v>387</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -7890,7 +7803,7 @@
         <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>125</v>
+        <v>389</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -7898,7 +7811,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7909,7 +7822,7 @@
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
@@ -7918,19 +7831,23 @@
         <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
       </c>
@@ -7977,22 +7894,26 @@
       <c r="AD61" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE61" s="2"/>
+      <c r="AE61" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG61" s="2"/>
+      <c r="AG61" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH61" t="s" s="2">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -8000,7 +7921,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8023,13 +7944,13 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>367</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>374</v>
+        <v>105</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>375</v>
+        <v>162</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8085,16 +8006,16 @@
       </c>
       <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>371</v>
+        <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>376</v>
+        <v>163</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8102,18 +8023,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -8125,20 +8046,18 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>378</v>
+        <v>92</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>379</v>
+        <v>165</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8162,13 +8081,13 @@
         <v>42</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>382</v>
+        <v>42</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>383</v>
+        <v>42</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8197,10 +8116,10 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>384</v>
+        <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>309</v>
+        <v>163</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8208,41 +8127,41 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>386</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>387</v>
+        <v>124</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8304,7 +8223,7 @@
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8312,7 +8231,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8320,7 +8239,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>51</v>
@@ -8332,19 +8251,21 @@
         <v>42</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
       </c>
@@ -8368,13 +8289,13 @@
         <v>42</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>42</v>
@@ -8397,24 +8318,24 @@
       </c>
       <c r="AG65" s="2"/>
       <c r="AH65" t="s" s="2">
-        <v>42</v>
+        <v>402</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>371</v>
+        <v>158</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>394</v>
+        <v>159</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8425,7 +8346,7 @@
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
@@ -8437,19 +8358,19 @@
         <v>52</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>397</v>
+        <v>265</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
@@ -8497,15 +8418,11 @@
       <c r="AD66" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE66" t="s" s="2">
-        <v>395</v>
-      </c>
+      <c r="AE66" s="2"/>
       <c r="AF66" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG66" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG66" s="2"/>
       <c r="AH66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8513,10 +8430,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8524,7 +8441,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8547,16 +8464,20 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8580,13 +8501,11 @@
         <v>42</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="X67" s="2"/>
       <c r="Y67" t="s" s="2">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>42</v>
@@ -8609,16 +8528,16 @@
       </c>
       <c r="AG67" s="2"/>
       <c r="AH67" t="s" s="2">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8626,11 +8545,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -8649,18 +8568,20 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>67</v>
+        <v>324</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>68</v>
+        <v>414</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>69</v>
+        <v>326</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>42</v>
       </c>
@@ -8719,10 +8640,10 @@
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>64</v>
+        <v>331</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8730,40 +8651,38 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>364</v>
+        <v>42</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -8826,7 +8745,7 @@
         <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8834,18 +8753,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>42</v>
@@ -8857,26 +8776,24 @@
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>406</v>
+        <v>92</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>407</v>
+        <v>165</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>410</v>
+        <v>42</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>42</v>
@@ -8894,13 +8811,13 @@
         <v>42</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>411</v>
+        <v>42</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>412</v>
+        <v>42</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>42</v>
@@ -8929,10 +8846,10 @@
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>413</v>
+        <v>163</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -8940,38 +8857,40 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>415</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>416</v>
+        <v>124</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -9034,7 +8953,7 @@
         <v>42</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>418</v>
+        <v>88</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>42</v>
@@ -9042,7 +8961,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9053,7 +8972,7 @@
         <v>40</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>42</v>
@@ -9062,23 +8981,19 @@
         <v>42</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>420</v>
+        <v>339</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>42</v>
       </c>
@@ -9125,26 +9040,22 @@
       <c r="AD72" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE72" t="s" s="2">
-        <v>419</v>
-      </c>
+      <c r="AE72" s="2"/>
       <c r="AF72" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG72" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG72" s="2"/>
       <c r="AH72" t="s" s="2">
-        <v>42</v>
+        <v>341</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>423</v>
+        <v>342</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>424</v>
+        <v>343</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
@@ -9152,7 +9063,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9175,13 +9086,13 @@
         <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>53</v>
+        <v>338</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>62</v>
+        <v>345</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>63</v>
+        <v>346</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9237,16 +9148,16 @@
       </c>
       <c r="AG73" s="2"/>
       <c r="AH73" t="s" s="2">
-        <v>42</v>
+        <v>341</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>64</v>
+        <v>347</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>42</v>
@@ -9254,18 +9165,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>42</v>
@@ -9277,18 +9188,20 @@
         <v>42</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>68</v>
+        <v>349</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>69</v>
+        <v>350</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9312,13 +9225,13 @@
         <v>42</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>42</v>
+        <v>353</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>42</v>
@@ -9347,10 +9260,10 @@
         <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>64</v>
+        <v>284</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -9358,41 +9271,41 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>364</v>
+        <v>42</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>67</v>
+        <v>357</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>156</v>
+        <v>358</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>42</v>
       </c>
@@ -9454,7 +9367,7 @@
         <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>125</v>
+        <v>361</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -9462,7 +9375,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9470,7 +9383,7 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>51</v>
@@ -9482,21 +9395,19 @@
         <v>42</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>42</v>
       </c>
@@ -9520,13 +9431,13 @@
         <v>42</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>42</v>
@@ -9549,1165 +9460,23 @@
       </c>
       <c r="AG76" s="2"/>
       <c r="AH76" t="s" s="2">
-        <v>431</v>
+        <v>42</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>188</v>
+        <v>342</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>189</v>
+        <v>365</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE77" s="2"/>
-      <c r="AF77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG77" s="2"/>
-      <c r="AH77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X78" s="2"/>
-      <c r="Y78" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE78" s="2"/>
-      <c r="AF78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG78" s="2"/>
-      <c r="AH78" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE79" s="2"/>
-      <c r="AF79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG79" s="2"/>
-      <c r="AH79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE80" s="2"/>
-      <c r="AF80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG80" s="2"/>
-      <c r="AH80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE81" s="2"/>
-      <c r="AF81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG81" s="2"/>
-      <c r="AH81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE82" s="2"/>
-      <c r="AF82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG82" s="2"/>
-      <c r="AH82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE83" s="2"/>
-      <c r="AF83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG83" s="2"/>
-      <c r="AH83" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE84" s="2"/>
-      <c r="AF84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG84" s="2"/>
-      <c r="AH84" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE85" s="2"/>
-      <c r="AF85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG85" s="2"/>
-      <c r="AH85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE86" s="2"/>
-      <c r="AF86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG86" s="2"/>
-      <c r="AH86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE87" s="2"/>
-      <c r="AF87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG87" s="2"/>
-      <c r="AH87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AL87" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL87">
+  <autoFilter ref="A1:AL76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10717,7 +9486,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
